--- a/documentation/Test Case Matrix.xlsx
+++ b/documentation/Test Case Matrix.xlsx
@@ -7,14 +7,18 @@
     <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Student" sheetId="1" r:id="rId1"/>
+    <sheet name="Faculty" sheetId="2" r:id="rId2"/>
+    <sheet name="Department" sheetId="3" r:id="rId3"/>
+    <sheet name="OUR" sheetId="4" r:id="rId4"/>
+    <sheet name="Officials" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
   <si>
     <t>CS173 Interoperability Layer Test Matrix</t>
   </si>
@@ -40,16 +44,136 @@
     <t>Actual Output</t>
   </si>
   <si>
-    <t>#00000000</t>
-  </si>
-  <si>
-    <t>0.0.0 Something</t>
-  </si>
-  <si>
-    <t>Something blah</t>
-  </si>
-  <si>
     <t>Not Tested</t>
+  </si>
+  <si>
+    <t>1.0.0 Student</t>
+  </si>
+  <si>
+    <t>#10000001</t>
+  </si>
+  <si>
+    <t>Student: Apply Account Success</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>username=default, password=passw0rd</t>
+  </si>
+  <si>
+    <t>username=default, password=passw0rd in student database</t>
+  </si>
+  <si>
+    <t>#10000002</t>
+  </si>
+  <si>
+    <t>Student: Update Personal Info Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username='default', lastname='Dela Cruz', firstname='Jesus', email='iamurhero@earth.com', sex='M', address='heaven', contact='86236' </t>
+  </si>
+  <si>
+    <t>#10000003</t>
+  </si>
+  <si>
+    <t>Student: Update Student Info Success</t>
+  </si>
+  <si>
+    <t>username='default', bracket='E', student_number='201696969'</t>
+  </si>
+  <si>
+    <t>bracket='E', student_number='201696969' where username='default' in the student database</t>
+  </si>
+  <si>
+    <t>lastname='Dela Cruz', firstname='Jesus', email='iamurhero@earth.com', sex='M', address='heaven', contact='86236' where username='default' in the student database</t>
+  </si>
+  <si>
+    <t>#10000004</t>
+  </si>
+  <si>
+    <t>#20000001</t>
+  </si>
+  <si>
+    <t>#20000002</t>
+  </si>
+  <si>
+    <t>#20000003</t>
+  </si>
+  <si>
+    <t>#20000004</t>
+  </si>
+  <si>
+    <t>2.0.0 Faculty</t>
+  </si>
+  <si>
+    <t>Faculty: Apply Account Success</t>
+  </si>
+  <si>
+    <t>Faculty: Update Personal Info Success</t>
+  </si>
+  <si>
+    <t>#30000001</t>
+  </si>
+  <si>
+    <t>#30000002</t>
+  </si>
+  <si>
+    <t>#30000003</t>
+  </si>
+  <si>
+    <t>#30000004</t>
+  </si>
+  <si>
+    <t>3.0.0 Department Admin</t>
+  </si>
+  <si>
+    <t>Department Admin: Apply Account Success</t>
+  </si>
+  <si>
+    <t>Department Admin: Update Personal Info Success</t>
+  </si>
+  <si>
+    <t>#40000001</t>
+  </si>
+  <si>
+    <t>#40000002</t>
+  </si>
+  <si>
+    <t>#40000003</t>
+  </si>
+  <si>
+    <t>#40000004</t>
+  </si>
+  <si>
+    <t>4.0.0 OUR Admin</t>
+  </si>
+  <si>
+    <t>OUR Admin: Apply Account Success</t>
+  </si>
+  <si>
+    <t>OUR Admin: Update Personal Info Success</t>
+  </si>
+  <si>
+    <t>#50000001</t>
+  </si>
+  <si>
+    <t>#50000002</t>
+  </si>
+  <si>
+    <t>#50000003</t>
+  </si>
+  <si>
+    <t>#50000004</t>
+  </si>
+  <si>
+    <t>5.0.0 School Officials</t>
+  </si>
+  <si>
+    <t>School Officials: Apply Account Success</t>
+  </si>
+  <si>
+    <t>School Officials: Update Personal Info Success</t>
   </si>
 </sst>
 </file>
@@ -108,12 +232,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -122,7 +247,1967 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="144">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -476,10 +2561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -493,15 +2578,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -568,44 +2653,1475 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="141" priority="31" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="140" priority="32" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="139" priority="25" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="138" priority="26" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="137" priority="27" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="136" priority="28" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="135" priority="21" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="134" priority="22" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="133" priority="23" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="132" priority="24" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="128" priority="20" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="123" priority="9" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="122" priority="10" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="121" priority="11" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="120" priority="12" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="119" priority="5" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="118" priority="6" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="117" priority="7" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="116" priority="8" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="114" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="113" priority="3" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="112" priority="4" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="D3:D5">
+      <formula1>"Not Tested,Passed,Minor Error,Major Error"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="36.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="52.140625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="111" priority="25" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="110" priority="26" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="109" priority="27" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="108" priority="28" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="107" priority="21" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="106" priority="22" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="105" priority="23" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="104" priority="24" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="103" priority="17" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="102" priority="18" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="101" priority="19" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="100" priority="20" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="99" priority="13" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="98" priority="14" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="97" priority="15" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="96" priority="16" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="95" priority="9" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="94" priority="10" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="93" priority="11" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="92" priority="12" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="85" priority="3" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="84" priority="4" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="D3:D5">
+      <formula1>"Not Tested,Passed,Minor Error,Major Error"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="36.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="52.140625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="82" priority="26" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="81" priority="27" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="80" priority="28" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="79" priority="21" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="78" priority="22" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="77" priority="23" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="76" priority="24" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="74" priority="18" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="72" priority="20" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="70" priority="14" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="68" priority="16" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="66" priority="10" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="64" priority="12" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="62" priority="6" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="60" priority="8" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="D3:D5">
+      <formula1>"Not Tested,Passed,Minor Error,Major Error"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="36.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="52.140625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="55" priority="25" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="54" priority="26" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="53" priority="27" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="52" priority="28" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="51" priority="21" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="50" priority="22" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="49" priority="23" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="48" priority="24" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="46" priority="18" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="45" priority="19" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="44" priority="20" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="43" priority="13" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="42" priority="14" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="D3:D5">
+      <formula1>"Not Tested,Passed,Minor Error,Major Error"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="36.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="52.140625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E5">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Not Tested">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Minor Error">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Major Error">
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Not Tested">
-      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+      <formula>NOT(ISERROR(SEARCH(("Not Tested"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH(("Passed"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Minor Error">
-      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+      <formula>NOT(ISERROR(SEARCH(("Minor Error"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Major Error">
-      <formula>NOT(ISERROR(SEARCH(("Major Error"),(D3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Major Error"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D3">
+    <dataValidation type="list" allowBlank="1" sqref="D3:D5">
       <formula1>"Not Tested,Passed,Minor Error,Major Error"</formula1>
     </dataValidation>
   </dataValidations>
